--- a/jira_project_details.xlsx
+++ b/jira_project_details.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t xml:space="preserve">Project Name</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">dhanushv@newtglobalcorp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATATT3xFfGF0iOzoJtg3KEepJLGopidH-XYZkX195yOZyuJhtQAqMiGMgOaY0abYac61UkhQc14UjrRl0cs9Pax5xJt8AD6EnY4Os5sMnD6gh_N0bnR2LXB4GFwMaix5gtoqRn-eZJ84i3zSpclb8_eWuPphsxdROI7k1c4Ny4Tpj9ROUiRd574=9D2034DA</t>
   </si>
   <si>
     <t xml:space="preserve">DMAP Extension</t>
@@ -344,60 +341,52 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>14</v>
+      <c r="A5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E5" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
